--- a/travel/YunNan-Nov.23rd,2012/Yunnan.xlsx
+++ b/travel/YunNan-Nov.23rd,2012/Yunnan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -11,12 +11,12 @@
     <sheet name="detail" sheetId="3" r:id="rId2"/>
     <sheet name="tickets" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>North -&gt; South</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,31 +257,28 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>午饭、兜兜、买吃的</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 01:30:00 -18:30</t>
     </r>
@@ -298,6 +295,106 @@
   <si>
     <t>西昌-盐源-泸沽湖西昌</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不在泸沽湖歇一天，环环湖吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸沽湖云南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪槽船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永宁温泉、狮子山（格姆山）、大落水村观景台、吉意溶洞、黑娃俄岛（蛇岛）、里务比岛、小落水村、扎美寺、里格岛、永宁坝子、永宁土知府衙署、阿夏幽谷、泸沽湖。泸沽湖门票80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以从泸沽湖镇到湖另一边里格，然后第二天从里格坐车7小时到云南丽江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎跳峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普达措/ 松赞林寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎跳峡休息，第二天爬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉市海</t>
+  </si>
+  <si>
+    <t>很近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐、住宿----泸沽湖云南:  大落水…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐、住宿----虎跳峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐、住宿----拉市海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉市海、束河古镇、大研古城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐、住宿----丽江古城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午爬完，中午启程来回普达措</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他花费 -------------&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum -------------------&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐、住宿----洛洼，50标间/ 草海的客栈，40-60左右；里格； 赵家湾子…</t>
+  </si>
+  <si>
+    <t>早上7点起来可以看日出，拍日出。吃早饭后大概9点左右，然后去去划船80一个人，（从四川这边的泸沽湖到云南那边的泸沽湖，中途会有一个小岛，船会停。</t>
+  </si>
+  <si>
+    <t>也可以直接去拉市海</t>
+  </si>
+  <si>
+    <t>旅馆订票</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>去成都可以试试他们的小吃街，很不错</t>
+  </si>
+  <si>
+    <t>中国的火车一般都会晚点，要做好晚点的心里准备，及时调整行程</t>
   </si>
   <si>
     <r>
@@ -307,11 +404,10 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>洛洼</t>
     </r>
@@ -319,141 +415,90 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>大概有六七公里的样子，徒步一个半小时左右</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不在泸沽湖歇一天，环环湖吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泸沽湖云南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪槽船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上7点起来可以看日出，拍日出。吃早饭后大概9点左右，然后去去划船80一个人，（从四川这边的泸沽湖到云南那边的泸沽湖，中途会有一个小岛，船会停。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永宁温泉、狮子山（格姆山）、大落水村观景台、吉意溶洞、黑娃俄岛（蛇岛）、里务比岛、小落水村、扎美寺、里格岛、永宁坝子、永宁土知府衙署、阿夏幽谷、泸沽湖。泸沽湖门票80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅馆订票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也可以从泸沽湖镇到湖另一边里格，然后第二天从里格坐车7小时到云南丽江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎跳峡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普达措/ 松赞林寺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎跳峡休息，第二天爬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉市海</t>
-  </si>
-  <si>
-    <t>很近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐、住宿----洛洼，50标间/ 草海的客栈，40-60左右；里格； 赵家湾子…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐、住宿----泸沽湖云南:  大落水…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐、住宿----虎跳峡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也可以直接去拉市海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐、住宿----拉市海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉市海、束河古镇、大研古城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐、住宿----丽江古城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午爬完，中午启程来回普达措</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他花费 -------------&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum -------------------&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于你们没有确定住的地方，所以要想好你们的行李要放哪里，否则背着行李去玩会很累</t>
+  </si>
+  <si>
+    <t>最好住在虎跳峡面对雪山的那种客栈，这样晚上看星空会很美，建议晚上去虎跳峡的一家咖啡厅，那里的老板是个很有故事的人</t>
+  </si>
+  <si>
+    <t>由于中虎跳爬起来对于都市人还是很累的，做好心理准备，最好请一个当地的导游带你们走，或者是客栈人员，所以还要预计好请当地人带你们走的费用，自己爬对于你们这种没有经验的人来说很危险，爬到下面可以直接面对金沙江，在礁石上多呆一会还是很好的。</t>
+  </si>
+  <si>
+    <t>拉市海预计呆的时间可以延长到2-3个小时，如果你们想骑马也可以在那里骑，费用是100，在湖上还有很好吃的烤鱼，一定要去试试，一条才20.</t>
+  </si>
+  <si>
+    <t>丽江到昆明的火车如果可以尽量买卧铺，坐着票。。。常人很难忍受，当时我坐了整整10个小时。。。人都要坐傻了</t>
+  </si>
+  <si>
+    <t>当中的费用一定不止这些，有些地方要考虑请当地人带路，所以要学会讨价还价，最后祝你们旅途愉快啦~~~
+^_^</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -461,14 +506,70 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3399FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -477,62 +578,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3399FF"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -541,16 +595,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -565,8 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -576,12 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +636,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -609,104 +654,96 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF0000FF"/>
-      <color rgb="FF3399FF"/>
-      <color rgb="FF99FF66"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -721,25 +758,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>282137</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\5PGHI`JW7O67}VHI~9CL_4J.jpg"/>
+        <xdr:cNvPr id="2069" name="Picture 1" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\5PGHI`JW7O67}VHI~9CL_4J.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -748,21 +779,18 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6454337" cy="4352925"/>
+          <a:ext cx="5772150" cy="4829175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -770,31 +798,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>661334</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\@CI{W_CUN1[B9VJB1P$M0AJ.jpg"/>
+        <xdr:cNvPr id="2070" name="Picture 2" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\@CI{W_CUN1[B9VJB1P$M0AJ.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -802,22 +824,19 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6877049" y="0"/>
-          <a:ext cx="7500285" cy="4429124"/>
+          <a:off x="6115050" y="0"/>
+          <a:ext cx="6686550" cy="4905375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -831,25 +850,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>8207</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\K`D`64L@EP8J8A66HI8{TK5.jpg"/>
+        <xdr:cNvPr id="2071" name="Picture 3" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\K`D`64L@EP8J8A66HI8{TK5.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -857,22 +870,19 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4705350"/>
-          <a:ext cx="6180407" cy="5543550"/>
+          <a:off x="0" y="5219700"/>
+          <a:ext cx="5495925" cy="6153150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -892,29 +902,26 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3076" name="AutoShape 4" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\P8QI[5C4@FFW3FN2Z_0p1.jpg"/>
+        <xdr:cNvPr id="2072" name="AutoShape 4" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\P8QI[5C4@FFW3FN2Z_0p1.jpg"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6858000" y="4629150"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="6096000" y="5143500"/>
+          <a:ext cx="304800" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -934,29 +941,26 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3077" name="AutoShape 5" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\P8QI[5C4@FFW3FN2Z_0p1.jpg"/>
+        <xdr:cNvPr id="2073" name="AutoShape 5" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\P8QI[5C4@FFW3FN2Z_0p1.jpg"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6858000" y="4629150"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="6096000" y="5143500"/>
+          <a:ext cx="304800" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -976,29 +980,26 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3078" name="AutoShape 6" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\P8QI[5C4@FFW3FN2Z_0p1.jpg"/>
+        <xdr:cNvPr id="2074" name="AutoShape 6" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\P8QI[5C4@FFW3FN2Z_0p1.jpg"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="10458450"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="0" y="11620500"/>
+          <a:ext cx="304800" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -1018,29 +1019,26 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3079" name="AutoShape 7" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\P8QI[5C4@FFW3FN2Z_0p1.jpg"/>
+        <xdr:cNvPr id="2075" name="AutoShape 7" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\P8QI[5C4@FFW3FN2Z_0p1.jpg"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="10458450"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="0" y="11620500"/>
+          <a:ext cx="304800" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -1060,19 +1058,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="2076" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1080,22 +1072,19 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6686550" y="4695825"/>
-          <a:ext cx="7277100" cy="6057900"/>
+          <a:off x="6000750" y="5210175"/>
+          <a:ext cx="6438900" cy="6724650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1115,19 +1104,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\U~IVJ2U{6{@(9JK0L$}Y99C.jpg"/>
+        <xdr:cNvPr id="2077" name="Picture 9" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\U~IVJ2U{6{@(9JK0L$}Y99C.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1135,22 +1118,19 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="11144250"/>
-          <a:ext cx="11353800" cy="5553075"/>
+          <a:off x="0" y="12382500"/>
+          <a:ext cx="10134600" cy="6162675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1170,19 +1150,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\X$}DJHJF4N(GFD8@Q$6M%5L.jpg"/>
+        <xdr:cNvPr id="2078" name="Picture 10" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\X$}DJHJF4N(GFD8@Q$6M%5L.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1190,22 +1164,19 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="16973550"/>
-          <a:ext cx="4038600" cy="5353050"/>
+          <a:off x="0" y="18859500"/>
+          <a:ext cx="3657600" cy="5943600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1224,30 +1195,39 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>449263</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3075" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect l="19252" t="15669" r="21115" b="24324"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7993063" cy="4524375"/>
+          <a:ext cx="7153275" cy="5019675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1330,7 +1310,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1365,7 +1344,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1541,89 +1519,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="7"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="27">
+      <c r="B2" s="17"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -1671,8 +1653,8 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:16" ht="90">
+      <c r="A4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1701,21 +1683,25 @@
         <f t="shared" ref="O4:O23" si="0">N4*2</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="C5" s="12" t="s">
+      <c r="P4" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="17"/>
+      <c r="C5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="17"/>
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -1744,9 +1730,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" ht="120">
+      <c r="A7" s="17"/>
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -1775,9 +1762,12 @@
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="27">
+      <c r="P7" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="17">
         <v>2</v>
       </c>
       <c r="B8" s="3">
@@ -1811,9 +1801,10 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:16" ht="60">
+      <c r="A9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1827,7 +1818,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H9" s="10">
         <v>0.3611111111111111</v>
@@ -1842,16 +1833,17 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="17"/>
       <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1865,18 +1857,19 @@
       <c r="M10" s="6"/>
       <c r="N10" s="9"/>
       <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="C11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="17"/>
+      <c r="C11" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="N11" s="7">
         <v>150</v>
       </c>
@@ -1884,35 +1877,37 @@
         <f>N11*2</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20">
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" ht="61.5" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14">
         <v>80</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="14">
         <f>N12*2</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="81" x14ac:dyDescent="0.15">
-      <c r="A13" s="27">
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" ht="105">
+      <c r="A13" s="17">
         <v>3</v>
       </c>
       <c r="B13" s="3">
@@ -1922,16 +1917,16 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
         <v>65</v>
       </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
       <c r="G13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="N13" s="7">
         <v>80</v>
@@ -1940,18 +1935,19 @@
         <f>N13*2</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="C14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" ht="150">
+      <c r="A14" s="17"/>
+      <c r="C14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="N14" s="7">
         <v>150</v>
       </c>
@@ -1959,9 +1955,12 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="29">
+      <c r="P14" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="19">
         <v>4</v>
       </c>
       <c r="B15" s="3">
@@ -1980,7 +1979,7 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H15" s="10">
         <v>0.375</v>
@@ -1995,20 +1994,21 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="C16" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="P15" s="22"/>
+    </row>
+    <row r="16" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="C16" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="N16" s="7">
         <v>150</v>
       </c>
@@ -2016,9 +2016,10 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+      <c r="P16" s="22"/>
+    </row>
+    <row r="17" spans="1:16" ht="210">
+      <c r="A17" s="19">
         <v>5</v>
       </c>
       <c r="B17" s="3">
@@ -2028,35 +2029,38 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
       <c r="N17" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O17" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="C18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="P17" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="C18" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
       <c r="N18" s="7">
         <v>150</v>
       </c>
@@ -2064,50 +2068,54 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
+      <c r="P18" s="22"/>
+    </row>
+    <row r="19" spans="1:16" ht="409.5">
+      <c r="A19" s="19">
         <v>6</v>
       </c>
       <c r="B19" s="3">
         <v>41242</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>81</v>
-      </c>
       <c r="N19" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O19" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="C20" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
+      <c r="P19" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="C20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="N20" s="7">
         <v>150</v>
       </c>
@@ -2115,44 +2123,46 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="29">
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="19">
         <v>7</v>
       </c>
       <c r="B21" s="3">
         <v>41243</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O21" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="C22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="C22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="N22" s="7">
         <v>150</v>
       </c>
@@ -2160,25 +2170,26 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="28">
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="1:16" ht="240">
+      <c r="A23" s="18">
         <v>8</v>
       </c>
       <c r="B23" s="3">
         <v>41244</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I23" s="11">
         <v>0.83333333333333337</v>
@@ -2187,9 +2198,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
+      <c r="P23" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="195">
+      <c r="A24" s="18"/>
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
@@ -2203,26 +2217,29 @@
       <c r="G24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="15">
         <v>0.87222222222222223</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="16">
         <v>0.25347222222222221</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="17">
+      <c r="N24" s="12">
         <v>148</v>
       </c>
       <c r="O24" s="4">
         <f>N24*2</f>
         <v>296</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="27">
+      <c r="P24" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="17">
         <v>9</v>
       </c>
       <c r="B25" s="3">
@@ -2253,278 +2270,286 @@
         <v>130</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" ref="N25" si="1">SUM(J25:M25)</f>
+        <f>SUM(J25:M25)</f>
         <v>905</v>
       </c>
       <c r="O25">
         <f>N25*2</f>
         <v>1810</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="B26" s="3"/>
       <c r="O26">
-        <f t="shared" ref="O26:O38" si="2">N26*2</f>
+        <f t="shared" ref="O26:O38" si="1">N26*2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
+      <c r="P26" s="22"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
       <c r="O27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="23">
+      <c r="P27" s="22"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="25">
         <v>1</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
       <c r="O28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="23">
+      <c r="P28" s="22"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="25">
         <v>2</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
       <c r="O29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="23">
+      <c r="P29" s="22"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="25">
         <v>3</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
       <c r="O30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="23">
+    <row r="31" spans="1:16">
+      <c r="A31" s="25">
         <v>4</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
       <c r="O31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="23">
+    <row r="32" spans="1:16">
+      <c r="A32" s="25">
         <v>5</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
       <c r="O32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="23">
+    <row r="33" spans="1:16">
+      <c r="A33" s="25">
         <v>6</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
       <c r="O33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="23">
+    <row r="34" spans="1:16">
+      <c r="A34" s="25">
         <v>7</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
       <c r="O34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="23">
+    <row r="35" spans="1:16">
+      <c r="A35" s="25">
         <v>8</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
       <c r="O35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="23">
+    <row r="36" spans="1:16">
+      <c r="A36" s="25">
         <v>9</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
       <c r="O36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="23">
+    <row r="37" spans="1:16">
+      <c r="A37" s="25">
         <v>10</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
       <c r="O37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
+    <row r="38" spans="1:16" ht="195">
+      <c r="A38" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
       <c r="N38" s="7">
         <f>SUM(N3:N25)</f>
         <v>3165</v>
       </c>
       <c r="O38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6330</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="P38" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" hidden="1">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -2563,14 +2588,14 @@
         <v>651</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" hidden="1">
       <c r="G48" t="s">
         <v>31</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:14" hidden="1">
       <c r="C49" t="s">
         <v>19</v>
       </c>
@@ -2589,7 +2614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:14" hidden="1">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -2624,7 +2649,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:14" hidden="1">
       <c r="G51" t="s">
         <v>26</v>
       </c>
@@ -2647,11 +2672,11 @@
         <v>130</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" ref="N51" si="3">SUM(J51:M51)</f>
+        <f>SUM(J51:M51)</f>
         <v>512</v>
       </c>
     </row>
-    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:14" hidden="1">
       <c r="H52" s="1">
         <v>0.71527777777777779</v>
       </c>
@@ -2664,6 +2689,7 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -2674,6 +2700,17 @@
     <mergeCell ref="A36:M36"/>
     <mergeCell ref="A37:M37"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="C14:I14"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -2684,33 +2721,22 @@
     <mergeCell ref="A30:M30"/>
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A27:M27"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2719,14 +2745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/travel/YunNan-Nov.23rd,2012/Yunnan.xlsx
+++ b/travel/YunNan-Nov.23rd,2012/Yunnan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -11,12 +11,12 @@
     <sheet name="detail" sheetId="3" r:id="rId2"/>
     <sheet name="tickets" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>North -&gt; South</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>丽江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁蒗泸沽湖客运站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,7 +301,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猪槽船</t>
+    <t>虎跳峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐、住宿----虎跳峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐、住宿----拉市海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他花费 -------------&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum -------------------&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐、住宿----洛洼，50标间/ 草海的客栈，40-60左右；里格； 赵家湾子…</t>
+  </si>
+  <si>
+    <t>早上7点起来可以看日出，拍日出。吃早饭后大概9点左右，然后去去划船80一个人，（从四川这边的泸沽湖到云南那边的泸沽湖，中途会有一个小岛，船会停。</t>
+  </si>
+  <si>
+    <t>旅馆订票</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>去成都可以试试他们的小吃街，很不错</t>
+  </si>
+  <si>
+    <t>最好住在虎跳峡面对雪山的那种客栈，这样晚上看星空会很美，建议晚上去虎跳峡的一家咖啡厅，那里的老板是个很有故事的人</t>
+  </si>
+  <si>
+    <t>由于中虎跳爬起来对于都市人还是很累的，做好心理准备，最好请一个当地的导游带你们走，或者是客栈人员，所以还要预计好请当地人带你们走的费用，自己爬对于你们这种没有经验的人来说很危险，爬到下面可以直接面对金沙江，在礁石上多呆一会还是很好的。</t>
+  </si>
+  <si>
+    <t>当中的费用一定不止这些，有些地方要考虑请当地人带路，所以要学会讨价还价，最后祝你们旅途愉快啦~~~
+^_^</t>
+  </si>
+  <si>
+    <t>晚餐、住宿----泸沽湖云南:  大落水…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">晚餐、住宿----丽江古城 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱在丽江客栈 古城区五一街兴仁上段75号 T:13150676199
+标准间 100-120/间 （两张单人床 32液晶电视 洗手间 免费国内长途 免费无线网 24小时热水）http://www.doyouhike.net/huangye/1258</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以从泸沽湖镇到湖另一边里格，然后第二天从里格坐车7小时到云南丽江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,88 +388,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>也可以从泸沽湖镇到湖另一边里格，然后第二天从里格坐车7小时到云南丽江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎跳峡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普达措/ 松赞林寺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎跳峡休息，第二天爬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉市海</t>
-  </si>
-  <si>
-    <t>很近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐、住宿----泸沽湖云南:  大落水…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐、住宿----虎跳峡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐、住宿----拉市海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉市海、束河古镇、大研古城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐、住宿----丽江古城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午爬完，中午启程来回普达措</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他花费 -------------&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum -------------------&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐、住宿----洛洼，50标间/ 草海的客栈，40-60左右；里格； 赵家湾子…</t>
-  </si>
-  <si>
-    <t>早上7点起来可以看日出，拍日出。吃早饭后大概9点左右，然后去去划船80一个人，（从四川这边的泸沽湖到云南那边的泸沽湖，中途会有一个小岛，船会停。</t>
-  </si>
-  <si>
-    <t>也可以直接去拉市海</t>
-  </si>
-  <si>
-    <t>旅馆订票</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>去成都可以试试他们的小吃街，很不错</t>
-  </si>
-  <si>
     <t>中国的火车一般都会晚点，要做好晚点的心里准备，及时调整行程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -405,7 +400,7 @@
         <b/>
         <sz val="11"/>
         <color indexed="8"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -415,55 +410,274 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>大概有六七公里的样子，徒步一个半小时左右</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>由于你们没有确定住的地方，所以要想好你们的行李要放哪里，否则背着行李去玩会很累</t>
-  </si>
-  <si>
-    <t>最好住在虎跳峡面对雪山的那种客栈，这样晚上看星空会很美，建议晚上去虎跳峡的一家咖啡厅，那里的老板是个很有故事的人</t>
-  </si>
-  <si>
-    <t>由于中虎跳爬起来对于都市人还是很累的，做好心理准备，最好请一个当地的导游带你们走，或者是客栈人员，所以还要预计好请当地人带你们走的费用，自己爬对于你们这种没有经验的人来说很危险，爬到下面可以直接面对金沙江，在礁石上多呆一会还是很好的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁蒗泸沽湖客运站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪槽船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香格里拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住香格里拉 然后几天玩香格里拉附近的普达措，松赞林寺，白水台，帕纳海，香格里拉大峡谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎跳峡镇（桥头）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎跳峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普达措/ 松赞林寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只游中虎跳，中午启程来回普达措</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游中虎跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以不去普达措，从上虎跳-中虎跳-金沙江-天梯， 住虎跳峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.去虎跳峡可以到丽江客运站坐车，早上有直达车到上虎跳的，丽江客运站早上8：30和9：00有班车去虎跳峡，票价二十多元 
+2. 如果去中虎跳可以坐班车到桥头后包车进出，路程加上游玩需要一天，只去上虎跳的话大半天也可以了
+3. 虎跳峡门票 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐、住宿----虎跳峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接到上虎跳/先到桥头，再坐车直到中虎跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎跳峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下到金沙江过路费 10
+如果住宿，可能不需要
+可能需要请向导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果去香格里拉的话，那么虎跳峡或者拉市海会有一块不去，后面的日程基本在香格里拉县城周边，且紧张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎跳峡休息，第二天爬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以不住虎跳峡，直接去拉市海 或者先去拉市海再去虎跳峡，然后从大具坐车回丽江，途径玉龙雪山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉市海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉市海、束河古镇、大研古城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉市海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拉市海预计呆的时间可以延长到2-3个小时，如果你们想骑马也可以在那里骑，费用是100，在湖上还有很好吃的烤鱼，一定要去试试，一条才20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丽江到昆明的火车如果可以尽量买卧铺，坐着票。。。常人很难忍受，当时我坐了整整10个小时。。。人都要坐傻了</t>
-  </si>
-  <si>
-    <t>当中的费用一定不止这些，有些地方要考虑请当地人带路，所以要学会讨价还价，最后祝你们旅途愉快啦~~~
-^_^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以把拉市海这一天放到虎跳峡前面，拉市海玩好回丽江，从丽江去拉市海先忠义市场有到拉市海的面包车，单边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元一个，拉市海公园门票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自己去海边骑马划船不用门票。建议在古城参加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一天的团。去虎跳峡参团一天也是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多，自己坐车就要到新客运站。门票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">50
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不过这样安排的话，比较重复在丽江兜圈子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
@@ -490,7 +704,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -498,7 +712,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -506,7 +720,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -514,7 +728,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -522,14 +736,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3399FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -537,14 +751,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -552,7 +766,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -560,7 +774,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -569,7 +783,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -578,7 +792,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -586,7 +800,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -595,10 +809,45 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -654,14 +903,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -673,68 +922,117 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -744,6 +1042,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1092,15 +1395,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1118,8 +1421,54 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="12382500"/>
-          <a:ext cx="10134600" cy="6162675"/>
+          <a:off x="428625" y="16354425"/>
+          <a:ext cx="11353800" cy="5553075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2078" name="Picture 10" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\X$}DJHJF4N(GFD8@Q$6M%5L.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8372475" y="10801350"/>
+          <a:ext cx="4038600" cy="5353050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1138,25 +1487,31 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2078" name="Picture 10" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\X$}DJHJF4N(GFD8@Q$6M%5L.jpg"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\735141027\QQ\WinTemp\RichOle\ZSJ73{I$DD0]Y79@NZ5{CCC.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1164,19 +1519,22 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="18859500"/>
-          <a:ext cx="3657600" cy="5943600"/>
+          <a:off x="28575" y="11010900"/>
+          <a:ext cx="7515225" cy="4943475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1310,6 +1668,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1344,6 +1703,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1519,92 +1879,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41:S41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
+    <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="35" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="P1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -1615,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1653,22 +2021,22 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="90">
+    <row r="4" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H4" s="10">
         <v>0.53125</v>
@@ -1680,42 +2048,45 @@
         <v>10</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O23" si="0">N4*2</f>
+        <f t="shared" ref="O4:O26" si="0">N4*2</f>
         <v>20</v>
       </c>
-      <c r="P4" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="C5" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="C5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
         <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
       </c>
       <c r="H6" s="10">
         <v>0.78125</v>
@@ -1730,24 +2101,24 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" ht="120">
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17"/>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="10">
         <v>0.83680555555555547</v>
@@ -1762,11 +2133,14 @@
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="P7" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>2</v>
       </c>
@@ -1801,24 +2175,24 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" ht="60">
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H9" s="10">
         <v>0.3611111111111111</v>
@@ -1833,17 +2207,17 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="32"/>
+        <v>42</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="45"/>
       <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1857,19 +2231,19 @@
       <c r="M10" s="6"/>
       <c r="N10" s="9"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
-      <c r="C11" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
       <c r="N11" s="7">
         <v>150</v>
       </c>
@@ -1877,22 +2251,22 @@
         <f>N11*2</f>
         <v>300</v>
       </c>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" ht="61.5" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="P11" s="21"/>
+    </row>
+    <row r="12" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -1904,9 +2278,9 @@
         <f>N12*2</f>
         <v>160</v>
       </c>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" ht="105">
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="1:19" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>3</v>
       </c>
@@ -1914,19 +2288,19 @@
         <v>41239</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="N13" s="7">
         <v>80</v>
@@ -1935,19 +2309,19 @@
         <f>N13*2</f>
         <v>160</v>
       </c>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" ht="150">
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
-      <c r="C14" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="C14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="N14" s="7">
         <v>150</v>
       </c>
@@ -1955,19 +2329,22 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="P14" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="19">
+      <c r="P14" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
         <v>4</v>
       </c>
       <c r="B15" s="3">
         <v>41240</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1976,10 +2353,10 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H15" s="10">
         <v>0.375</v>
@@ -1994,21 +2371,21 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="P15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="C16" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="C16" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
       <c r="N16" s="7">
         <v>150</v>
       </c>
@@ -2016,106 +2393,118 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="P16" s="22"/>
-    </row>
-    <row r="17" spans="1:16" ht="210">
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="1:19" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>5</v>
       </c>
       <c r="B17" s="3">
         <v>41241</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="30">
+        <v>100</v>
+      </c>
+      <c r="O17" s="31">
+        <f>N17*2</f>
+        <v>200</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+    </row>
+    <row r="18" spans="1:19" s="6" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P17" s="22" t="s">
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="9">
+        <v>300</v>
+      </c>
+      <c r="O18" s="6">
+        <f>N18*2</f>
+        <v>600</v>
+      </c>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="C18" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="N18" s="7">
-        <v>150</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="P18" s="22"/>
-    </row>
-    <row r="19" spans="1:16" ht="409.5">
-      <c r="A19" s="19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3">
-        <v>41242</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P19" s="22" t="s">
+      <c r="F19" s="26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="13.5" customHeight="1">
+      <c r="G19" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="C20" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="C20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
       <c r="N20" s="7">
         <v>150</v>
       </c>
@@ -2123,521 +2512,569 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="P20" s="22"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="1:19" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3">
-        <v>41243</v>
+        <v>41242</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" t="e">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="N21" s="7">
+        <v>10</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P21" s="22"/>
-    </row>
-    <row r="22" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="C22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="N22" s="7">
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+    </row>
+    <row r="22" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="9">
+        <v>300</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="22"/>
+    </row>
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="C23" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="N23" s="7">
         <v>150</v>
       </c>
-      <c r="O22">
+      <c r="O23">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="P22" s="22"/>
-    </row>
-    <row r="23" spans="1:16" ht="240">
-      <c r="A23" s="18">
+      <c r="P23" s="21"/>
+    </row>
+    <row r="24" spans="1:19" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>41243</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="N24" s="7">
+        <v>300</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="P24" s="21"/>
+    </row>
+    <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="C25" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="N25" s="7">
+        <v>150</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18">
         <v>8</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B26" s="3">
         <v>41244</v>
       </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="O23">
+      <c r="O26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="195">
-      <c r="A24" s="18"/>
-      <c r="C24" s="4" t="s">
+      <c r="P26" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+    </row>
+    <row r="27" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="E27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="15">
         <v>0.87222222222222223</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I27" s="16">
         <v>0.25347222222222221</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="12">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="12">
         <v>148</v>
       </c>
-      <c r="O24" s="4">
-        <f>N24*2</f>
+      <c r="O27" s="4">
+        <f>N27*2</f>
         <v>296</v>
       </c>
-      <c r="P24" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="17">
+      <c r="P27" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="17">
         <v>9</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B28" s="3">
         <v>41245</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25">
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28">
         <v>705</v>
       </c>
-      <c r="K25">
+      <c r="K28">
         <v>20</v>
       </c>
-      <c r="L25">
+      <c r="L28">
         <v>50</v>
       </c>
-      <c r="M25">
+      <c r="M28">
         <v>130</v>
       </c>
-      <c r="N25" s="7">
-        <f>SUM(J25:M25)</f>
+      <c r="N28" s="7">
+        <f>SUM(J28:M28)</f>
         <v>905</v>
       </c>
-      <c r="O25">
-        <f>N25*2</f>
+      <c r="O28">
+        <f>N28*2</f>
         <v>1810</v>
       </c>
-      <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="B26" s="3"/>
-      <c r="O26">
-        <f t="shared" ref="O26:O38" si="1">N26*2</f>
+      <c r="P28" s="21"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B29" s="3"/>
+      <c r="O29">
+        <f t="shared" ref="O29:O41" si="1">N29*2</f>
         <v>0</v>
       </c>
-      <c r="P26" s="22"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="O27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="22"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="25">
-        <v>1</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="O28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="22"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="25">
-        <v>2</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="O29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="22"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="25">
-        <v>3</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
+      <c r="P29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
       <c r="O30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="25">
-        <v>4</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" s="38">
+        <v>1</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
       <c r="O31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="25">
-        <v>5</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32" s="38">
+        <v>2</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
       <c r="O32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="25">
-        <v>6</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
+      <c r="P32" s="21"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A33" s="38">
+        <v>3</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
       <c r="O33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="25">
-        <v>7</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A34" s="38">
+        <v>4</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
       <c r="O34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="25">
-        <v>8</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A35" s="38">
+        <v>5</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
       <c r="O35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="25">
-        <v>9</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A36" s="38">
+        <v>6</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
       <c r="O36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="25">
-        <v>10</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A37" s="38">
+        <v>7</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
       <c r="O37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="195">
-      <c r="A38" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="7">
-        <f>SUM(N3:N25)</f>
-        <v>3165</v>
-      </c>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A38" s="38">
+        <v>8</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>6330</v>
-      </c>
-      <c r="P38" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" hidden="1">
-      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A39" s="38">
+        <v>9</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A40" s="38">
+        <v>10</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="7">
+        <f>SUM(N3:N28)</f>
+        <v>4175</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>8350</v>
+      </c>
+      <c r="P41" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+    </row>
+    <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
         <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="J47">
-        <v>456</v>
-      </c>
-      <c r="K47">
-        <v>15</v>
-      </c>
-      <c r="L47">
-        <v>50</v>
-      </c>
-      <c r="M47">
-        <v>130</v>
-      </c>
-      <c r="N47" s="7">
-        <f>SUM(J47:M47)</f>
-        <v>651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" hidden="1">
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="3:14" hidden="1">
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="N49" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" hidden="1">
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2</v>
       </c>
       <c r="E50" t="s">
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H50" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="I50" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="J50">
-        <v>295</v>
+        <v>456</v>
       </c>
       <c r="K50">
         <v>15</v>
@@ -2648,79 +3085,157 @@
       <c r="M50">
         <v>130</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" hidden="1">
+      <c r="N50" s="7">
+        <f>SUM(J50:M50)</f>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="G51" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="1">
+        <v>30</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="N52" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J53">
+        <v>295</v>
+      </c>
+      <c r="K53">
+        <v>15</v>
+      </c>
+      <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="1">
         <v>0.75</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I54" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J51">
+      <c r="J54">
         <v>317</v>
       </c>
-      <c r="K51">
+      <c r="K54">
         <v>15</v>
       </c>
-      <c r="L51">
+      <c r="L54">
         <v>50</v>
       </c>
-      <c r="M51">
+      <c r="M54">
         <v>130</v>
       </c>
-      <c r="N51" s="7">
-        <f>SUM(J51:M51)</f>
+      <c r="N54" s="7">
+        <f>SUM(J54:M54)</f>
         <v>512</v>
       </c>
     </row>
-    <row r="52" spans="3:14" hidden="1">
-      <c r="H52" s="1">
+    <row r="55" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H55" s="1">
         <v>0.71527777777777779</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I55" s="1">
         <v>0.79861111111111116</v>
       </c>
-      <c r="J52">
+      <c r="J55">
         <v>390</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
+  <mergeCells count="45">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:M2"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A40:M40"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C20:I20"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A30:M30"/>
     <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A41:M41"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A30:M30"/>
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="P1:S2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P21:S21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2729,14 +3244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="T81" sqref="T81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2745,14 +3260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/travel/YunNan-Nov.23rd,2012/Yunnan.xlsx
+++ b/travel/YunNan-Nov.23rd,2012/Yunnan.xlsx
@@ -306,10 +306,6 @@
   </si>
   <si>
     <t>包车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很近</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,6 +657,10 @@
       </rPr>
       <t>不过这样安排的话，比较重复在丽江兜圈子</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很近 包车5元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,74 +965,74 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1883,7 +1883,7 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41:S41"/>
+      <selection activeCell="F26" sqref="F26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1909,68 +1909,68 @@
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="41" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+      <c r="P1" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
@@ -2051,24 +2051,24 @@
         <f t="shared" ref="O4:O26" si="0">N4*2</f>
         <v>20</v>
       </c>
-      <c r="P4" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
+      <c r="P4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
@@ -2133,12 +2133,12 @@
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
+      <c r="P7" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
@@ -2192,7 +2192,7 @@
         <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="10">
         <v>0.3611111111111111</v>
@@ -2235,15 +2235,15 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
-      <c r="C11" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
+      <c r="C11" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
       <c r="N11" s="7">
         <v>150</v>
       </c>
@@ -2254,19 +2254,19 @@
       <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -2294,13 +2294,13 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N13" s="7">
         <v>80</v>
@@ -2313,15 +2313,15 @@
     </row>
     <row r="14" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
-      <c r="C14" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="C14" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="N14" s="7">
         <v>150</v>
       </c>
@@ -2329,12 +2329,12 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="P14" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
+      <c r="P14" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
@@ -2353,10 +2353,10 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="10">
         <v>0.375</v>
@@ -2375,17 +2375,17 @@
     </row>
     <row r="16" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
-      <c r="C16" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44" t="s">
+      <c r="C16" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="N16" s="7">
         <v>150</v>
       </c>
@@ -2403,22 +2403,22 @@
         <v>41241</v>
       </c>
       <c r="C17" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
@@ -2430,17 +2430,17 @@
         <f>N17*2</f>
         <v>200</v>
       </c>
-      <c r="P17" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
+      <c r="P17" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
     </row>
     <row r="18" spans="1:19" s="6" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23"/>
       <c r="B18" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>12</v>
@@ -2449,10 +2449,10 @@
         <v>64</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>112</v>
+        <v>94</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>111</v>
       </c>
       <c r="N18" s="9">
         <v>300</v>
@@ -2469,22 +2469,22 @@
     <row r="19" spans="1:19" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>111</v>
+      <c r="G19" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="N19" s="9"/>
       <c r="P19" s="25"/>
@@ -2494,17 +2494,17 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="C20" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35" t="s">
+      <c r="C20" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
       <c r="N20" s="7">
         <v>150</v>
       </c>
@@ -2525,21 +2525,21 @@
         <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
         <v>107</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="40"/>
+      <c r="H21" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="50"/>
       <c r="N21" s="7">
         <v>10</v>
       </c>
@@ -2547,35 +2547,35 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
+      <c r="P21" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
     </row>
     <row r="22" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="24"/>
       <c r="B22" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>98</v>
-      </c>
       <c r="G22" s="24"/>
-      <c r="H22" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="39"/>
+      <c r="H22" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="49"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -2594,17 +2594,17 @@
     </row>
     <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="C23" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35" t="s">
+      <c r="C23" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
       <c r="N23" s="7">
         <v>150</v>
       </c>
@@ -2625,15 +2625,15 @@
         <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="54"/>
+      <c r="H24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="37"/>
       <c r="N24" s="7">
         <v>300</v>
       </c>
@@ -2645,17 +2645,17 @@
     </row>
     <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
-      <c r="C25" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35" t="s">
+      <c r="C25" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
       <c r="N25" s="7">
         <v>150</v>
       </c>
@@ -2673,30 +2673,33 @@
         <v>41244</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I26" s="11">
         <v>0.83333333333333337</v>
       </c>
+      <c r="N26" s="7">
+        <v>5</v>
+      </c>
       <c r="O26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
+        <v>10</v>
+      </c>
+      <c r="P26" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
     </row>
     <row r="27" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
@@ -2730,12 +2733,12 @@
         <f>N27*2</f>
         <v>296</v>
       </c>
-      <c r="P27" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
+      <c r="P27" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="17">
@@ -2788,7 +2791,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
@@ -2809,21 +2812,21 @@
       <c r="P30" s="21"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" s="38">
+      <c r="A31" s="39">
         <v>1</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
       <c r="O31">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2831,21 +2834,21 @@
       <c r="P31" s="21"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A32" s="38">
+      <c r="A32" s="39">
         <v>2</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
       <c r="O32">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2853,203 +2856,203 @@
       <c r="P32" s="21"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A33" s="38">
+      <c r="A33" s="39">
         <v>3</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
       <c r="O33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A34" s="38">
+      <c r="A34" s="39">
         <v>4</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
       <c r="O34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A35" s="38">
+      <c r="A35" s="39">
         <v>5</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
       <c r="O35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A36" s="38">
+      <c r="A36" s="39">
         <v>6</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
       <c r="O36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A37" s="38">
+      <c r="A37" s="39">
         <v>7</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
       <c r="O37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A38" s="38">
+      <c r="A38" s="39">
         <v>8</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
       <c r="O38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A39" s="38">
+      <c r="A39" s="39">
         <v>9</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
       <c r="O39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A40" s="38">
+      <c r="A40" s="39">
         <v>10</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
       <c r="O40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
+      <c r="A41" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
       <c r="N41" s="7">
         <f>SUM(N3:N28)</f>
-        <v>4175</v>
+        <v>4180</v>
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>8350</v>
-      </c>
-      <c r="P41" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
+        <v>8360</v>
+      </c>
+      <c r="P41" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
     </row>
     <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
@@ -3191,11 +3194,30 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="P1:S2"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A39:M39"/>
@@ -3212,30 +3234,11 @@
     <mergeCell ref="C25:I25"/>
     <mergeCell ref="A30:M30"/>
     <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="P1:S2"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
